--- a/biology/Zoologie/Conus_flamingo/Conus_flamingo.xlsx
+++ b/biology/Zoologie/Conus_flamingo/Conus_flamingo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus flamingo est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 16 mm et 27 mm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Locus typicus :. Au large de Dania, Broward County, Florida, USA[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Locus typicus :. Au large de Dania, Broward County, Florida, USA. 
 Cette espèce marine d'escargot à cône se trouve au large de la Floride orientale, à une profondeur de 46 mètres.
 </t>
         </is>
@@ -577,14 +593,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus flamingo a été décrite pour la première fois en 1980 par le malacologiste américain Edward James Petuch (d)[2] dans la publication intitulée « Proceedings of the Biological Society of Washington »[3],[4].
-Synonymes
-Conus (Dauciconus) flamingo Petuch, 1980 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus flamingo a été décrite pour la première fois en 1980 par le malacologiste américain Edward James Petuch (d) dans la publication intitulée « Proceedings of the Biological Society of Washington »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_flamingo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_flamingo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) flamingo Petuch, 1980 · appellation alternative
 Gradiconus flamingo (Petuch, 1980) · non accepté
-Tuckericonus flamingo (Petuch, 1980) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus flamingo dans les principales bases sont les suivants :
+Tuckericonus flamingo (Petuch, 1980) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_flamingo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_flamingo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus flamingo dans les principales bases sont les suivants :
 CoL : 5ZY33 - GBIF : 5193258 - iNaturalist : 129302 - IRMNG : 10233136 - SeaLifeBase : 75399 - TAXREF : 6365 - WoRMS : 429362
 </t>
         </is>
